--- a/data/testdata.xlsx
+++ b/data/testdata.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="58">
   <si>
     <t>用例ID</t>
   </si>
@@ -77,7 +77,7 @@
     <t>/authorizations/</t>
   </si>
   <si>
-    <t>POST</t>
+    <t>post</t>
   </si>
   <si>
     <t>json</t>
@@ -144,6 +144,30 @@
   </si>
   <si>
     <t>无法使用提供的认证信息登录</t>
+  </si>
+  <si>
+    <t>cart_1</t>
+  </si>
+  <si>
+    <t>购物车</t>
+  </si>
+  <si>
+    <t>添加购物车成功</t>
+  </si>
+  <si>
+    <t>/cart/</t>
+  </si>
+  <si>
+    <t>{"sku_id": "3","count": "1", "selected": "true"}</t>
+  </si>
+  <si>
+    <t>sku_id': 3, 'count': 1</t>
+  </si>
+  <si>
+    <t>{"Authorization": "JWT ${token}$"}</t>
+  </si>
+  <si>
+    <t>201</t>
   </si>
   <si>
     <t>运行级别</t>
@@ -870,7 +894,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -907,6 +931,15 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -920,6 +953,18 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" quotePrefix="1">
@@ -1174,8 +1219,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="A1:L6" totalsRowShown="0">
-  <autoFilter ref="A1:L6"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="A1:L7" totalsRowShown="0">
+  <autoFilter ref="A1:L7"/>
   <tableColumns count="12">
     <tableColumn id="1" name="用例ID" dataDxfId="0"/>
     <tableColumn id="2" name="模块" dataDxfId="1"/>
@@ -1452,13 +1497,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:P6"/>
+  <dimension ref="A1:P7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" outlineLevelRow="5"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" outlineLevelRow="6"/>
   <cols>
     <col min="3" max="3" width="19.8333333333333" customWidth="1"/>
     <col min="4" max="4" width="43.6666666666667" customWidth="1"/>
@@ -1502,22 +1547,22 @@
       <c r="J1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="12" t="s">
+      <c r="K1" s="15" t="s">
         <v>10</v>
       </c>
       <c r="L1" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="13" t="s">
+      <c r="M1" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="13" t="s">
+      <c r="N1" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="14" t="s">
+      <c r="O1" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="13" t="s">
+      <c r="P1" s="16" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1544,17 +1589,19 @@
       <c r="H2" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="I2" s="17" t="s">
+      <c r="I2" s="24" t="s">
         <v>23</v>
       </c>
       <c r="J2" s="10"/>
-      <c r="K2" s="15"/>
+      <c r="K2" s="18"/>
       <c r="L2" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="M2" s="10"/>
+      <c r="M2" s="10" t="s">
+        <v>22</v>
+      </c>
       <c r="N2" s="10"/>
-      <c r="O2" s="16" t="s">
+      <c r="O2" s="19" t="s">
         <v>25</v>
       </c>
       <c r="P2" s="10"/>
@@ -1582,17 +1629,19 @@
       <c r="H3" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="I3" s="17" t="s">
+      <c r="I3" s="24" t="s">
         <v>29</v>
       </c>
       <c r="J3" s="10"/>
-      <c r="K3" s="15"/>
+      <c r="K3" s="18"/>
       <c r="L3" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="M3" s="10"/>
+      <c r="M3" s="10" t="s">
+        <v>22</v>
+      </c>
       <c r="N3" s="10"/>
-      <c r="O3" s="16" t="s">
+      <c r="O3" s="19" t="s">
         <v>25</v>
       </c>
       <c r="P3" s="10"/>
@@ -1620,17 +1669,19 @@
       <c r="H4" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="I4" s="17" t="s">
+      <c r="I4" s="24" t="s">
         <v>33</v>
       </c>
       <c r="J4" s="10"/>
-      <c r="K4" s="15"/>
+      <c r="K4" s="18"/>
       <c r="L4" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="M4" s="10"/>
+      <c r="M4" s="10" t="s">
+        <v>22</v>
+      </c>
       <c r="N4" s="10"/>
-      <c r="O4" s="16" t="s">
+      <c r="O4" s="19" t="s">
         <v>25</v>
       </c>
       <c r="P4" s="10"/>
@@ -1658,17 +1709,19 @@
       <c r="H5" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="I5" s="17" t="s">
+      <c r="I5" s="24" t="s">
         <v>37</v>
       </c>
       <c r="J5" s="10"/>
-      <c r="K5" s="15"/>
+      <c r="K5" s="18"/>
       <c r="L5" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="M5" s="10"/>
+      <c r="M5" s="10" t="s">
+        <v>22</v>
+      </c>
       <c r="N5" s="10"/>
-      <c r="O5" s="16" t="s">
+      <c r="O5" s="19" t="s">
         <v>38</v>
       </c>
       <c r="P5" s="10"/>
@@ -1696,20 +1749,60 @@
       <c r="H6" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="I6" s="17" t="s">
+      <c r="I6" s="24" t="s">
         <v>42</v>
       </c>
       <c r="J6" s="10"/>
-      <c r="K6" s="15"/>
+      <c r="K6" s="18"/>
       <c r="L6" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="M6" s="10"/>
+      <c r="M6" s="10" t="s">
+        <v>22</v>
+      </c>
       <c r="N6" s="10"/>
-      <c r="O6" s="16" t="s">
+      <c r="O6" s="19" t="s">
         <v>25</v>
       </c>
       <c r="P6" s="10"/>
+    </row>
+    <row r="7" ht="28.5" spans="1:16">
+      <c r="A7" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="G7" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="H7" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="J7" s="13"/>
+      <c r="K7" s="20"/>
+      <c r="L7" s="13"/>
+      <c r="M7" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="N7" s="22"/>
+      <c r="O7" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="P7" s="22"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1742,7 +1835,7 @@
   <sheetData>
     <row r="1" ht="15" spans="1:5">
       <c r="A1" s="2" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="2"/>
@@ -1751,32 +1844,32 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="4" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="4" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="4" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="4" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="4" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:1">

--- a/data/testdata.xlsx
+++ b/data/testdata.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23280" windowHeight="10740"/>
+    <workbookView windowWidth="23520" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="美多商城接口测试" sheetId="2" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="64">
   <si>
     <t>用例ID</t>
   </si>
@@ -168,6 +168,26 @@
   </si>
   <si>
     <t>201</t>
+  </si>
+  <si>
+    <t>cate_1</t>
+  </si>
+  <si>
+    <t>商品列表数据</t>
+  </si>
+  <si>
+    <t>商品列表数据正确</t>
+  </si>
+  <si>
+    <t>/categories/115/skus/</t>
+  </si>
+  <si>
+    <t>get</t>
+  </si>
+  <si>
+    <t>{"page":"1",
+ "page_size": "10",
+ "ordering": "create_time"}</t>
   </si>
   <si>
     <t>运行级别</t>
@@ -196,10 +216,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -227,22 +247,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <color rgb="FFFA7D00"/>
       <name val="DengXian"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="0"/>
       <name val="DengXian"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -274,13 +286,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="DengXian"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -331,8 +336,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="0"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="DengXian"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -345,9 +366,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="DengXian"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -368,187 +388,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -638,26 +658,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -721,17 +732,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -752,149 +772,149 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -953,6 +973,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
@@ -1219,8 +1245,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="A1:L7" totalsRowShown="0">
-  <autoFilter ref="A1:L7"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="A1:L8" totalsRowShown="0">
+  <autoFilter ref="A1:L8"/>
   <tableColumns count="12">
     <tableColumn id="1" name="用例ID" dataDxfId="0"/>
     <tableColumn id="2" name="模块" dataDxfId="1"/>
@@ -1497,14 +1523,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:P7"/>
+  <dimension ref="A1:P8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" outlineLevelRow="6"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" outlineLevelRow="7"/>
   <cols>
+    <col min="2" max="2" width="12.5" customWidth="1"/>
     <col min="3" max="3" width="19.8333333333333" customWidth="1"/>
     <col min="4" max="4" width="43.6666666666667" customWidth="1"/>
     <col min="5" max="5" width="27.1666666666667" customWidth="1"/>
@@ -1589,7 +1616,7 @@
       <c r="H2" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="I2" s="24" t="s">
+      <c r="I2" s="26" t="s">
         <v>23</v>
       </c>
       <c r="J2" s="10"/>
@@ -1629,7 +1656,7 @@
       <c r="H3" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="I3" s="24" t="s">
+      <c r="I3" s="26" t="s">
         <v>29</v>
       </c>
       <c r="J3" s="10"/>
@@ -1669,7 +1696,7 @@
       <c r="H4" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="I4" s="24" t="s">
+      <c r="I4" s="26" t="s">
         <v>33</v>
       </c>
       <c r="J4" s="10"/>
@@ -1709,7 +1736,7 @@
       <c r="H5" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="I5" s="24" t="s">
+      <c r="I5" s="26" t="s">
         <v>37</v>
       </c>
       <c r="J5" s="10"/>
@@ -1749,7 +1776,7 @@
       <c r="H6" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="I6" s="24" t="s">
+      <c r="I6" s="26" t="s">
         <v>42</v>
       </c>
       <c r="J6" s="10"/>
@@ -1767,42 +1794,78 @@
       <c r="P6" s="10"/>
     </row>
     <row r="7" ht="28.5" spans="1:16">
-      <c r="A7" s="12" t="s">
+      <c r="A7" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="D7" s="13" t="s">
+      <c r="D7" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13" t="s">
+      <c r="E7" s="10"/>
+      <c r="F7" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="G7" s="13" t="s">
+      <c r="G7" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="H7" s="14" t="s">
+      <c r="H7" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="I7" s="13" t="s">
+      <c r="I7" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="J7" s="13"/>
-      <c r="K7" s="20"/>
-      <c r="L7" s="13"/>
-      <c r="M7" s="21" t="s">
+      <c r="J7" s="10"/>
+      <c r="K7" s="18"/>
+      <c r="L7" s="10"/>
+      <c r="M7" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="N7" s="22"/>
-      <c r="O7" s="23" t="s">
+      <c r="N7" s="9"/>
+      <c r="O7" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="P7" s="22"/>
+      <c r="P7" s="9"/>
+    </row>
+    <row r="8" ht="42.75" spans="1:16">
+      <c r="A8" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="G8" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="H8" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="I8" s="13"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="22"/>
+      <c r="L8" s="13"/>
+      <c r="M8" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="N8" s="24"/>
+      <c r="O8" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="P8" s="24"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1835,7 +1898,7 @@
   <sheetData>
     <row r="1" ht="15" spans="1:5">
       <c r="A1" s="2" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="2"/>
@@ -1844,32 +1907,32 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="4" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="4" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="4" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="4" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="4" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:1">
